--- a/src/main/resources/com/relative/QuskyOro/Matrices/ColateralClientesInternos.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/ColateralClientesInternos.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskiBre\Matrices\Matrices v2\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F29B5EF-011A-42BC-BE57-79B567C0832A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780DE0A-02B7-4EEF-B3D2-480AF64E0FAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="7632" windowWidth="22944" windowHeight="5052" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZDECISON" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,9 +95,6 @@
     <t>RuleTable ColateralClientesInternos</t>
   </si>
   <si>
-    <t>com.relative.brecreditosnuevos.objetosnegocio.Cliente</t>
-  </si>
-  <si>
     <t>cliente.getPerfilInterno()=="$param"</t>
   </si>
   <si>
@@ -154,6 +150,9 @@
   </si>
   <si>
     <t>TIEMPO CANCELACION</t>
+  </si>
+  <si>
+    <t>com.relative.QuskyOro.ObjetosNegocio.Cliente</t>
   </si>
 </sst>
 </file>
@@ -376,6 +375,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -384,12 +389,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3253,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58:J58"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3295,11 +3294,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3354,37 +3353,37 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="7"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>18</v>
@@ -3398,29 +3397,29 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>41</v>
+      <c r="C8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3437,7 +3436,7 @@
         <v>365</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>9</v>
@@ -3452,7 +3451,7 @@
         <v>80</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3469,7 +3468,7 @@
         <v>365</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>9</v>
@@ -3501,7 +3500,7 @@
         <v>365</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>9</v>
@@ -3516,7 +3515,7 @@
         <v>105</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3533,7 +3532,7 @@
         <v>365</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>9</v>
@@ -3548,7 +3547,7 @@
         <v>105</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3565,7 +3564,7 @@
         <v>365</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
@@ -3597,7 +3596,7 @@
         <v>365</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>10</v>
@@ -3612,7 +3611,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3629,7 +3628,7 @@
         <v>365</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>10</v>
@@ -3661,7 +3660,7 @@
         <v>365</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>10</v>
@@ -3693,7 +3692,7 @@
         <v>365</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
@@ -3725,7 +3724,7 @@
         <v>365</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
@@ -3740,7 +3739,7 @@
         <v>115</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3757,7 +3756,7 @@
         <v>365</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>11</v>
@@ -3772,7 +3771,7 @@
         <v>120</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3789,7 +3788,7 @@
         <v>365</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>11</v>
@@ -3804,7 +3803,7 @@
         <v>120</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3821,7 +3820,7 @@
         <v>365</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>12</v>
@@ -3836,7 +3835,7 @@
         <v>120</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3853,7 +3852,7 @@
         <v>365</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>12</v>
@@ -3868,7 +3867,7 @@
         <v>125</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3885,7 +3884,7 @@
         <v>365</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>12</v>
@@ -3900,7 +3899,7 @@
         <v>140</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3917,7 +3916,7 @@
         <v>365</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>12</v>
@@ -3932,7 +3931,7 @@
         <v>140</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3949,7 +3948,7 @@
         <v>365</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>13</v>
@@ -3964,7 +3963,7 @@
         <v>125</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3981,7 +3980,7 @@
         <v>365</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>13</v>
@@ -3996,7 +3995,7 @@
         <v>135</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4013,7 +4012,7 @@
         <v>365</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>13</v>
@@ -4028,7 +4027,7 @@
         <v>140</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4045,7 +4044,7 @@
         <v>365</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>13</v>
@@ -4060,7 +4059,7 @@
         <v>140</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4077,7 +4076,7 @@
         <v>365</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>9</v>
@@ -4092,7 +4091,7 @@
         <v>80</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4109,7 +4108,7 @@
         <v>365</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>9</v>
@@ -4141,7 +4140,7 @@
         <v>365</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>9</v>
@@ -4156,7 +4155,7 @@
         <v>105</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4173,7 +4172,7 @@
         <v>365</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>9</v>
@@ -4188,7 +4187,7 @@
         <v>105</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4205,7 +4204,7 @@
         <v>365</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>10</v>
@@ -4237,7 +4236,7 @@
         <v>365</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>10</v>
@@ -4252,7 +4251,7 @@
         <v>100</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4269,7 +4268,7 @@
         <v>365</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>10</v>
@@ -4301,7 +4300,7 @@
         <v>365</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>10</v>
@@ -4333,7 +4332,7 @@
         <v>365</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>11</v>
@@ -4365,7 +4364,7 @@
         <v>365</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>11</v>
@@ -4380,7 +4379,7 @@
         <v>115</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4397,7 +4396,7 @@
         <v>365</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>11</v>
@@ -4412,7 +4411,7 @@
         <v>120</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4429,7 +4428,7 @@
         <v>365</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>11</v>
@@ -4444,7 +4443,7 @@
         <v>120</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4461,7 +4460,7 @@
         <v>365</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>12</v>
@@ -4476,7 +4475,7 @@
         <v>120</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4493,7 +4492,7 @@
         <v>365</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>12</v>
@@ -4508,7 +4507,7 @@
         <v>125</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4525,7 +4524,7 @@
         <v>365</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>12</v>
@@ -4540,7 +4539,7 @@
         <v>140</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4557,7 +4556,7 @@
         <v>365</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>12</v>
@@ -4572,7 +4571,7 @@
         <v>140</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4589,7 +4588,7 @@
         <v>365</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>13</v>
@@ -4604,7 +4603,7 @@
         <v>125</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4621,7 +4620,7 @@
         <v>365</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>13</v>
@@ -4636,7 +4635,7 @@
         <v>135</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4653,7 +4652,7 @@
         <v>365</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>13</v>
@@ -4668,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4685,7 +4684,7 @@
         <v>365</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>13</v>
@@ -4700,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4715,7 +4714,7 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>9</v>
@@ -4726,7 +4725,7 @@
         <v>80</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4741,7 +4740,7 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>10</v>
@@ -4767,7 +4766,7 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>11</v>
@@ -4793,7 +4792,7 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>12</v>
@@ -4804,7 +4803,7 @@
         <v>120</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4819,7 +4818,7 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>13</v>
@@ -4830,7 +4829,7 @@
         <v>125</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4845,7 +4844,7 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>9</v>
@@ -4856,7 +4855,7 @@
         <v>80</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4871,7 +4870,7 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>10</v>
@@ -4897,7 +4896,7 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>11</v>
@@ -4923,7 +4922,7 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>12</v>
@@ -4934,7 +4933,7 @@
         <v>120</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4949,7 +4948,7 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>13</v>
@@ -4960,7 +4959,7 @@
         <v>125</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/relative/QuskyOro/Matrices/ColateralClientesInternos.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/ColateralClientesInternos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780DE0A-02B7-4EEF-B3D2-480AF64E0FAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EAC1A0-72FF-4A58-9126-0D19866E6E26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>TIEMPO CANCELACION</t>
   </si>
   <si>
-    <t>com.relative.QuskyOro.ObjetosNegocio.Cliente</t>
+    <t>com.relative.QuskiOro.ObjetosNegocio.Cliente</t>
   </si>
 </sst>
 </file>
@@ -3253,7 +3253,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
